--- a/concepts/equity-and-justice/input.xlsx
+++ b/concepts/equity-and-justice/input.xlsx
@@ -2435,44 +2435,6 @@
       <c r="AI32" s="12"/>
       <c r="AJ32" s="12"/>
     </row>
-    <row r="33">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
-      <c r="AI33" s="12"/>
-      <c r="AJ33" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="Q1:T1"/>
@@ -2489,7 +2451,7 @@
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E33 G3:G33 I3:I33 K3:K33 M3:M33 O3:O33 Q3:Q33 S3:S33 U3:U33 W3:W33 Y3:Y33 AA3:AA33 AC3:AC33 AE3:AE33 AG3:AG33 AI3:AI33">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E32 G3:G32 I3:I32 K3:K32 M3:M32 O3:O32 Q3:Q32 S3:S32 U3:U32 W3:W32 Y3:Y32 AA3:AA32 AC3:AC32 AE3:AE32 AG3:AG32 AI3:AI32">
       <formula1>'Rule types'!$A$3:$A$100</formula1>
     </dataValidation>
   </dataValidations>
